--- a/Skill Audit/Swastika Skills Audit.xlsx
+++ b/Skill Audit/Swastika Skills Audit.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakri\Documents\GitHub\Group3\Skill Audit\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2885CE-1DD5-43F7-98CA-ED935CE0880E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -201,8 +207,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -780,7 +786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -790,19 +796,19 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.5" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="4" max="4" width="32.125" customWidth="1"/>
-    <col min="5" max="5" width="32.375" customWidth="1"/>
-    <col min="6" max="6" width="13.125" customWidth="1"/>
-    <col min="7" max="7" width="27.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.875" customWidth="1"/>
+    <col min="4" max="4" width="32.09765625" customWidth="1"/>
+    <col min="5" max="5" width="32.3984375" customWidth="1"/>
+    <col min="6" max="6" width="13.09765625" customWidth="1"/>
+    <col min="7" max="7" width="27.09765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>21</v>
       </c>
@@ -814,7 +820,7 @@
       <c r="G1" s="13"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -824,7 +830,7 @@
       <c r="G2" s="16"/>
       <c r="H2" s="17"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -836,7 +842,7 @@
       </c>
       <c r="H3" s="20"/>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="18" t="s">
         <v>28</v>
@@ -852,7 +858,7 @@
       <c r="G4" s="21"/>
       <c r="H4" s="22"/>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -862,7 +868,7 @@
       <c r="G5" s="21"/>
       <c r="H5" s="22"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
@@ -888,7 +894,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="60" customHeight="1">
+    <row r="7" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -914,7 +920,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="31.5">
+    <row r="8" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>2</v>
       </c>
@@ -940,7 +946,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="47.25">
+    <row r="9" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>3</v>
       </c>
@@ -966,7 +972,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="31.5">
+    <row r="10" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>4</v>
       </c>
@@ -992,7 +998,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="31.5">
+    <row r="11" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>5</v>
       </c>
@@ -1018,7 +1024,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="31.5">
+    <row r="12" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>6</v>
       </c>
@@ -1044,7 +1050,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="31.5">
+    <row r="13" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>7</v>
       </c>
@@ -1070,7 +1076,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="31.5">
+    <row r="14" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>8</v>
       </c>
@@ -1096,7 +1102,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="47.25">
+    <row r="15" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>9</v>
       </c>
@@ -1122,7 +1128,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="31.5" customHeight="1">
+    <row r="16" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>10</v>
       </c>
@@ -1148,7 +1154,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="31.5">
+    <row r="17" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>11</v>
       </c>
@@ -1174,7 +1180,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="31.5">
+    <row r="18" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>12</v>
       </c>
@@ -1200,7 +1206,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="31.5">
+    <row r="19" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>13</v>
       </c>
@@ -1226,7 +1232,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="31.5">
+    <row r="20" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>14</v>
       </c>
@@ -1252,7 +1258,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="31.5">
+    <row r="21" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>15</v>
       </c>
@@ -1278,7 +1284,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1288,7 +1294,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1298,7 +1304,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1308,7 +1314,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1318,7 +1324,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>

--- a/Skill Audit/Swastika Skills Audit.xlsx
+++ b/Skill Audit/Swastika Skills Audit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakri\Documents\GitHub\Group3\Skill Audit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2885CE-1DD5-43F7-98CA-ED935CE0880E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5200555A-2DF8-4FD5-A3CC-429A444C048F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -266,7 +266,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -384,12 +384,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -409,13 +437,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -446,6 +468,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -793,7 +830,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -809,26 +846,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="14"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
@@ -837,26 +874,26 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="20"/>
+      <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="10" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F4" s="4"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="22"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
@@ -865,8 +902,8 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="22"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="20"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
@@ -1051,236 +1088,236 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
+      <c r="A13" s="21">
         <v>7</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="21">
         <v>3</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="21">
         <v>5</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="22">
         <v>43895</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
+      <c r="A14" s="23">
         <v>8</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="23">
         <v>2</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="23">
         <v>5</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="24">
         <v>43905</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="23" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
-        <v>9</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="23">
+        <v>9</v>
+      </c>
+      <c r="B15" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="23">
         <v>3</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="23">
         <v>2</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="25">
         <v>43895</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="23" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
+      <c r="A16" s="23">
         <v>10</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="23">
         <v>3</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="23">
         <v>7</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="24">
         <v>43894</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="23" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+      <c r="A17" s="23">
         <v>11</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="23">
         <v>3</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="23">
         <v>3</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="24">
         <v>43917</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="23" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="A18" s="23">
         <v>12</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="23">
         <v>3</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="23">
         <v>12</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="24">
         <v>43926</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="23" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+      <c r="A19" s="23">
         <v>13</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="23">
         <v>2</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="23">
         <v>2</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="24">
         <v>43890</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="23" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+      <c r="A20" s="23">
         <v>14</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="23">
         <v>1</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="23">
         <v>4</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="24">
         <v>43891</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="23" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+      <c r="A21" s="23">
         <v>15</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="23">
         <v>2</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="23">
         <v>2</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="24">
         <v>43893</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="23" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Skill Audit/Swastika Skills Audit.xlsx
+++ b/Skill Audit/Swastika Skills Audit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakri\Documents\GitHub\Group3\Skill Audit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5200555A-2DF8-4FD5-A3CC-429A444C048F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A434427-BA36-4F36-BFC3-0B510D46E1B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6924" yWindow="1104" windowWidth="13836" windowHeight="7176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -438,6 +438,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -468,21 +483,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -829,7 +829,7 @@
   </sheetPr>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
@@ -846,26 +846,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="12"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
@@ -874,17 +874,17 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="18"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="16"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="9" t="s">
         <v>24</v>
       </c>
@@ -892,8 +892,8 @@
         <v>25</v>
       </c>
       <c r="F4" s="4"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="25"/>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
@@ -902,8 +902,8 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
@@ -1088,236 +1088,236 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="21">
+      <c r="A13" s="10">
         <v>7</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="10">
         <v>3</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="10">
         <v>5</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="11">
         <v>43895</v>
       </c>
-      <c r="H13" s="21" t="s">
+      <c r="H13" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="23">
+      <c r="A14" s="12">
         <v>8</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="12">
         <v>2</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="12">
         <v>5</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="13">
         <v>43905</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="23">
-        <v>9</v>
-      </c>
-      <c r="B15" s="23" t="s">
+      <c r="A15" s="12">
+        <v>9</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="12">
         <v>3</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="12">
         <v>2</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G15" s="14">
         <v>43895</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H15" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23">
+      <c r="A16" s="12">
         <v>10</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="12">
         <v>3</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="12">
         <v>7</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="13">
         <v>43894</v>
       </c>
-      <c r="H16" s="23" t="s">
+      <c r="H16" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="23">
+      <c r="A17" s="12">
         <v>11</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="12">
         <v>3</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="12">
         <v>3</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="13">
         <v>43917</v>
       </c>
-      <c r="H17" s="23" t="s">
+      <c r="H17" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="23">
+      <c r="A18" s="12">
         <v>12</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="12">
         <v>3</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="12">
         <v>12</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="13">
         <v>43926</v>
       </c>
-      <c r="H18" s="23" t="s">
+      <c r="H18" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="23">
+      <c r="A19" s="12">
         <v>13</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="12">
         <v>2</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="12">
         <v>2</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G19" s="13">
         <v>43890</v>
       </c>
-      <c r="H19" s="23" t="s">
+      <c r="H19" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="23">
+      <c r="A20" s="12">
         <v>14</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="12">
         <v>1</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="12">
         <v>4</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G20" s="13">
         <v>43891</v>
       </c>
-      <c r="H20" s="23" t="s">
+      <c r="H20" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="23">
+      <c r="A21" s="12">
         <v>15</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="12">
         <v>2</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="12">
         <v>2</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G21" s="13">
         <v>43893</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="H21" s="12" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Skill Audit/Swastika Skills Audit.xlsx
+++ b/Skill Audit/Swastika Skills Audit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakri\Documents\GitHub\Group3\Skill Audit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A434427-BA36-4F36-BFC3-0B510D46E1B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8ECA05-72A8-4E7B-A5ED-58685FAEBED2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6924" yWindow="1104" windowWidth="13836" windowHeight="7176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-2400" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -829,8 +829,8 @@
   </sheetPr>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F11" activeCellId="1" sqref="F27 F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
